--- a/results/xlsx_reports/Rastrigin_Improved_RO.xlsx
+++ b/results/xlsx_reports/Rastrigin_Improved_RO.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>D=2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>D=10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>D=2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.023567676938164</v>
+      </c>
+      <c r="C2" t="n">
         <v>43.59527280773436</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.023567676938164</v>
       </c>
       <c r="D2" t="n">
         <v>282.0706167831429</v>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1.161200223093073</v>
+      </c>
+      <c r="C3" t="n">
         <v>57.47607149315709</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.161200223093073</v>
       </c>
       <c r="D3" t="n">
         <v>321.8842986958069</v>
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>2.365894608611431</v>
+      </c>
+      <c r="C4" t="n">
         <v>69.57644926076993</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.365894608611431</v>
       </c>
       <c r="D4" t="n">
         <v>364.7269916497947</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.5833928720534955</v>
+      </c>
+      <c r="C5" t="n">
         <v>6.930344007245449</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5833928720534955</v>
       </c>
       <c r="D5" t="n">
         <v>23.32176022980493</v>
